--- a/biology/Zoologie/Burgessochaeta/Burgessochaeta.xlsx
+++ b/biology/Zoologie/Burgessochaeta/Burgessochaeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Burgessochaeta setigera est une espèce éteinte d'annélides découverte dans les schistes de Burgess datés du Cambrien moyen, il y a environ 505 Ma (millions d'années).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fossiles sont présents en Amérique du Nord, précisément au Canada dans les schistes de Burgess.
 </t>
@@ -542,7 +556,9 @@
           <t>Rareté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il représente 0,4 % de la faune de la carrière de Walcott.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesurait 4,9 cm et avait une paire d’antennes sur la tète. Les segments de son corps ont de la soie[Quoi ?].
 </t>
@@ -604,7 +622,9 @@
           <t>Mode alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était charognard.
 </t>
